--- a/test/dv/well_rupture_shaking/LuuEtal2022.xlsx
+++ b/test/dv/well_rupture_shaking/LuuEtal2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/test/dv/well_rupture/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/test/dv/well_rupture_shaking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:40009_{D6F4385A-CD96-4FC7-9CA2-EF6DEDCEFB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF70DAF9-8978-4B19-A9FD-AD17DD959D04}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:40009_{D6F4385A-CD96-4FC7-9CA2-EF6DEDCEFB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FF0CBB6-5AAC-4C37-BC78-AEB6DF4BC25B}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="-120" windowWidth="27630" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LuuEtal2022" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>mode</t>
   </si>
@@ -67,28 +67,58 @@
     <t>Epistemic</t>
   </si>
   <si>
-    <t>moment_crit_conductor</t>
-  </si>
-  <si>
-    <t>moment_crit_surface</t>
-  </si>
-  <si>
-    <t>moment_crit_production</t>
-  </si>
-  <si>
-    <t>moment_crit_tubing</t>
-  </si>
-  <si>
-    <t>sigma_moment_crit_conductor</t>
-  </si>
-  <si>
-    <t>sigma_moment_crit_surface</t>
-  </si>
-  <si>
-    <t>sigma_moment_crit_production</t>
-  </si>
-  <si>
-    <t>sigma_moment_crit_tubing</t>
+    <t>casing_flow</t>
+  </si>
+  <si>
+    <t>tubing_flow</t>
+  </si>
+  <si>
+    <t>d_production_casing_in</t>
+  </si>
+  <si>
+    <t>d_tubing_in</t>
+  </si>
+  <si>
+    <t>d_production_casing</t>
+  </si>
+  <si>
+    <t>d_tubing</t>
+  </si>
+  <si>
+    <t>moment_crit_rup_conductor</t>
+  </si>
+  <si>
+    <t>moment_crit_rup_production</t>
+  </si>
+  <si>
+    <t>moment_crit_rup_tubing</t>
+  </si>
+  <si>
+    <t>sigma_moment_crit_rup_conductor</t>
+  </si>
+  <si>
+    <t>sigma_moment_crit_rup_surface</t>
+  </si>
+  <si>
+    <t>sigma_moment_crit_rup_production</t>
+  </si>
+  <si>
+    <t>sigma_moment_crit_rup_tubing</t>
+  </si>
+  <si>
+    <t>sigma_mu_moment_crit_rup_conductor</t>
+  </si>
+  <si>
+    <t>sigma_mu_moment_crit_rup_surface</t>
+  </si>
+  <si>
+    <t>sigma_mu_moment_crit_rup_production</t>
+  </si>
+  <si>
+    <t>sigma_mu_moment_crit_rup_tubing</t>
+  </si>
+  <si>
+    <t>moment_crit_rup_surface</t>
   </si>
 </sst>
 </file>
@@ -572,9 +602,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -996,256 +1029,389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:I4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="A1:S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.36328125" customWidth="1"/>
-    <col min="13" max="16" width="13" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="11.85546875" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" customWidth="1"/>
+    <col min="23" max="26" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
         <v>1</v>
       </c>
-      <c r="B2">
-        <f>IF($A2=1,M$3,IF($A2=2,M$4,IF($A2=4,M$5)))</f>
+      <c r="B2" t="b">
+        <f>IF(A2=TRUE,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f>C2*2.54/100</f>
+        <v>0.2286</v>
+      </c>
+      <c r="F2">
+        <f>D2*2.54/100</f>
+        <v>0.1016</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G4" si="0">IF(B2=TRUE,IF(D2&lt;(3+1/8),4,IF(C2&gt;(7+3/4),1,2)),IF(C2&gt;=(8+5/8),1,IF(C2&lt;=(6+5/8),4,2)))</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:K4" si="1">IF($G2=1,W$3,IF($G2=2,W$4,IF($G2=4,W$5)))</f>
         <v>1311917.8336408872</v>
       </c>
-      <c r="C2">
-        <f>IF($A2=1,N$3,IF($A2=2,N$4,IF($A2=4,N$5)))</f>
+      <c r="I2">
+        <f t="shared" si="1"/>
         <v>564045.03865570051</v>
       </c>
-      <c r="D2">
-        <f>IF($A2=1,O$3,IF($A2=2,O$4,IF($A2=4,O$5)))</f>
+      <c r="J2">
+        <f t="shared" si="1"/>
         <v>211194.85776528355</v>
       </c>
-      <c r="E2">
-        <f>IF($A2=1,P$3,IF($A2=2,P$4,IF($A2=4,P$5)))</f>
+      <c r="K2">
+        <f t="shared" si="1"/>
         <v>27913.054527964967</v>
       </c>
-      <c r="F2">
-        <v>0.2</v>
-      </c>
-      <c r="G2">
-        <v>0.2</v>
-      </c>
-      <c r="H2">
-        <v>0.2</v>
-      </c>
-      <c r="I2">
-        <v>0.2</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2">
+        <v>0.2</v>
+      </c>
+      <c r="M2">
+        <v>0.2</v>
+      </c>
+      <c r="N2">
+        <v>0.2</v>
+      </c>
+      <c r="O2">
+        <v>0.2</v>
+      </c>
+      <c r="P2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2">
+        <v>0.25</v>
+      </c>
+      <c r="R2">
+        <v>0.25</v>
+      </c>
+      <c r="S2">
+        <v>0.25</v>
+      </c>
+      <c r="W2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
+      <c r="X2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Y2" t="s">
         <v>3</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Z2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="b">
+        <f t="shared" ref="B3:B4" si="2">IF(A3=TRUE,FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>3.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:F4" si="3">C3*2.54/100</f>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="3"/>
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3">
-        <f>IF($A3=1,M$3,IF($A3=2,M$4,IF($A3=4,M$5)))</f>
+      <c r="H3">
+        <f t="shared" si="1"/>
         <v>1311917.8336408872</v>
       </c>
-      <c r="C3">
-        <f>IF($A3=1,N$3,IF($A3=2,N$4,IF($A3=4,N$5)))</f>
+      <c r="I3">
+        <f t="shared" si="1"/>
         <v>300336.80948482733</v>
       </c>
-      <c r="D3">
-        <f>IF($A3=1,O$3,IF($A3=2,O$4,IF($A3=4,O$5)))</f>
+      <c r="J3">
+        <f t="shared" si="1"/>
         <v>109907.62377744389</v>
       </c>
-      <c r="E3">
-        <f>IF($A3=1,P$3,IF($A3=2,P$4,IF($A3=4,P$5)))</f>
+      <c r="K3">
+        <f t="shared" si="1"/>
         <v>21532.927778715832</v>
       </c>
-      <c r="F3">
-        <v>0.2</v>
-      </c>
-      <c r="G3">
-        <v>0.2</v>
-      </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-      <c r="I3">
-        <v>0.2</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>0.2</v>
+      </c>
+      <c r="M3">
+        <v>0.2</v>
+      </c>
+      <c r="N3">
+        <v>0.2</v>
+      </c>
+      <c r="O3">
+        <v>0.2</v>
+      </c>
+      <c r="P3">
+        <v>0.25</v>
+      </c>
+      <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
+        <v>0.25</v>
+      </c>
+      <c r="S3">
+        <v>0.25</v>
+      </c>
+      <c r="V3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="1">
+      <c r="W3" s="1">
         <f>[1]Failure!B3</f>
         <v>1311917.8336408872</v>
       </c>
-      <c r="N3" s="1">
+      <c r="X3" s="1">
         <f>[1]Failure!B4</f>
         <v>564045.03865570051</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Y3" s="1">
         <f>[1]Failure!B5</f>
         <v>211194.85776528355</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Z3" s="1">
         <f>[1]Failure!B6</f>
         <v>27913.054527964967</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B4">
-        <f>IF($A4=1,M$3,IF($A4=2,M$4,IF($A4=4,M$5)))</f>
+      <c r="H4">
+        <f t="shared" si="1"/>
         <v>1066185.8602549003</v>
       </c>
-      <c r="C4">
-        <f>IF($A4=1,N$3,IF($A4=2,N$4,IF($A4=4,N$5)))</f>
+      <c r="I4">
+        <f t="shared" si="1"/>
         <v>435757.8626963764</v>
       </c>
-      <c r="D4">
-        <f>IF($A4=1,O$3,IF($A4=2,O$4,IF($A4=4,O$5)))</f>
+      <c r="J4">
+        <f t="shared" si="1"/>
         <v>162947.34416623643</v>
       </c>
-      <c r="E4">
-        <f>IF($A4=1,P$3,IF($A4=2,P$4,IF($A4=4,P$5)))</f>
+      <c r="K4">
+        <f t="shared" si="1"/>
         <v>12302.584227609492</v>
       </c>
-      <c r="F4">
-        <v>0.2</v>
-      </c>
-      <c r="G4">
-        <v>0.2</v>
-      </c>
-      <c r="H4">
-        <v>0.2</v>
-      </c>
-      <c r="I4">
-        <v>0.2</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>0.2</v>
+      </c>
+      <c r="M4">
+        <v>0.2</v>
+      </c>
+      <c r="N4">
+        <v>0.2</v>
+      </c>
+      <c r="O4">
+        <v>0.2</v>
+      </c>
+      <c r="P4">
+        <v>0.25</v>
+      </c>
+      <c r="Q4">
+        <v>0.25</v>
+      </c>
+      <c r="R4">
+        <v>0.25</v>
+      </c>
+      <c r="S4">
+        <v>0.25</v>
+      </c>
+      <c r="V4" t="s">
         <v>6</v>
       </c>
-      <c r="M4">
+      <c r="W4">
         <f>[1]Failure!C3</f>
         <v>1311917.8336408872</v>
       </c>
-      <c r="N4">
+      <c r="X4">
         <f>[1]Failure!C4</f>
         <v>300336.80948482733</v>
       </c>
-      <c r="O4">
+      <c r="Y4">
         <f>[1]Failure!C5</f>
         <v>109907.62377744389</v>
       </c>
-      <c r="P4">
+      <c r="Z4">
         <f>[1]Failure!C6</f>
         <v>21532.927778715832</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="L5" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
         <v>7</v>
       </c>
-      <c r="M5">
+      <c r="W5">
         <f>[1]Failure!D3</f>
         <v>1066185.8602549003</v>
       </c>
-      <c r="N5">
+      <c r="X5">
         <f>[1]Failure!D4</f>
         <v>435757.8626963764</v>
       </c>
-      <c r="O5">
+      <c r="Y5">
         <f>[1]Failure!D5</f>
         <v>162947.34416623643</v>
       </c>
-      <c r="P5">
+      <c r="Z5">
         <f>[1]Failure!D6</f>
         <v>12302.584227609492</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="L6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
         <v>8</v>
       </c>
-      <c r="M6">
-        <v>0.2</v>
-      </c>
-      <c r="N6">
-        <v>0.2</v>
-      </c>
-      <c r="O6">
-        <v>0.2</v>
-      </c>
-      <c r="P6">
+      <c r="W6">
+        <v>0.2</v>
+      </c>
+      <c r="X6">
+        <v>0.2</v>
+      </c>
+      <c r="Y6">
+        <v>0.2</v>
+      </c>
+      <c r="Z6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="L7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
         <v>9</v>
       </c>
-      <c r="M7">
-        <v>0.25</v>
-      </c>
-      <c r="N7">
-        <v>0.25</v>
-      </c>
-      <c r="O7">
-        <v>0.25</v>
-      </c>
-      <c r="P7">
+      <c r="W7">
+        <v>0.25</v>
+      </c>
+      <c r="X7">
+        <v>0.25</v>
+      </c>
+      <c r="Y7">
+        <v>0.25</v>
+      </c>
+      <c r="Z7">
         <v>0.25</v>
       </c>
     </row>
